--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ephb1</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N2">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O2">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P2">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q2">
-        <v>0.1367121165946666</v>
+        <v>1.084122803753778</v>
       </c>
       <c r="R2">
-        <v>1.230409049352</v>
+        <v>9.757105233783999</v>
       </c>
       <c r="S2">
-        <v>0.01867298989529156</v>
+        <v>0.07813551988990212</v>
       </c>
       <c r="T2">
-        <v>0.01867298989529155</v>
+        <v>0.07813551988990215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N3">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O3">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P3">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q3">
-        <v>0.2169628304736667</v>
+        <v>1.155493976808889</v>
       </c>
       <c r="R3">
-        <v>1.952665474263</v>
+        <v>10.39944579128</v>
       </c>
       <c r="S3">
-        <v>0.02963413077057635</v>
+        <v>0.08327942396839233</v>
       </c>
       <c r="T3">
-        <v>0.02963413077057635</v>
+        <v>0.08327942396839234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.058121333333333</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>3.174364</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.7166663618813337</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.7166663618813337</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.916802666666666</v>
+        <v>0.010998</v>
       </c>
       <c r="N4">
-        <v>5.750407999999999</v>
+        <v>0.032994</v>
       </c>
       <c r="O4">
-        <v>0.3865473586068074</v>
+        <v>0.001328504749664189</v>
       </c>
       <c r="P4">
-        <v>0.3865473586068073</v>
+        <v>0.00132850474966419</v>
       </c>
       <c r="Q4">
-        <v>2.028209793390222</v>
+        <v>0.002979299544</v>
       </c>
       <c r="R4">
-        <v>18.253888140512</v>
+        <v>0.026813695896</v>
       </c>
       <c r="S4">
-        <v>0.2770254891875799</v>
+        <v>0.0002147257838061846</v>
       </c>
       <c r="T4">
-        <v>0.2770254891875799</v>
+        <v>0.0002147257838061846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,10 +729,10 @@
         <v>3.174364</v>
       </c>
       <c r="I5">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J5">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.041975666666667</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N5">
-        <v>9.125927000000001</v>
+        <v>12.006026</v>
       </c>
       <c r="O5">
-        <v>0.6134526413931928</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P5">
-        <v>0.6134526413931927</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q5">
-        <v>3.218779348380889</v>
+        <v>4.23461074638489</v>
       </c>
       <c r="R5">
-        <v>28.969014135428</v>
+        <v>38.111496717464</v>
       </c>
       <c r="S5">
-        <v>0.4396408726937539</v>
+        <v>0.3051992920492951</v>
       </c>
       <c r="T5">
-        <v>0.4396408726937538</v>
+        <v>0.3051992920492951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,51 +785,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3470046666666667</v>
+        <v>1.058121333333333</v>
       </c>
       <c r="H6">
-        <v>1.041014</v>
+        <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.2350265174527984</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.2350265174527984</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.916802666666666</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N6">
-        <v>5.750407999999999</v>
+        <v>12.79642</v>
       </c>
       <c r="O6">
-        <v>0.3865473586068074</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P6">
-        <v>0.3865473586068073</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q6">
-        <v>0.6651394704124444</v>
+        <v>4.513388330764445</v>
       </c>
       <c r="R6">
-        <v>5.986255233712</v>
+        <v>40.62049497688</v>
       </c>
       <c r="S6">
-        <v>0.09084887952393593</v>
+        <v>0.3252915098439268</v>
       </c>
       <c r="T6">
-        <v>0.09084887952393592</v>
+        <v>0.3252915098439268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,46 +847,232 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
+        <v>1.058121333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.174364</v>
+      </c>
+      <c r="I7">
+        <v>0.6313295261673385</v>
+      </c>
+      <c r="J7">
+        <v>0.6313295261673384</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.010998</v>
+      </c>
+      <c r="N7">
+        <v>0.032994</v>
+      </c>
+      <c r="O7">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P7">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q7">
+        <v>0.011637218424</v>
+      </c>
+      <c r="R7">
+        <v>0.104734965816</v>
+      </c>
+      <c r="S7">
+        <v>0.0008387242741165513</v>
+      </c>
+      <c r="T7">
+        <v>0.0008387242741165514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
         <v>0.3470046666666667</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>1.041014</v>
       </c>
-      <c r="I7">
-        <v>0.2350265174527984</v>
-      </c>
-      <c r="J7">
-        <v>0.2350265174527984</v>
-      </c>
-      <c r="K7">
+      <c r="I8">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="J8">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.041975666666667</v>
-      </c>
-      <c r="N7">
-        <v>9.125927000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.6134526413931928</v>
-      </c>
-      <c r="P7">
-        <v>0.6134526413931927</v>
-      </c>
-      <c r="Q7">
-        <v>1.055579752219778</v>
-      </c>
-      <c r="R7">
-        <v>9.500217769978002</v>
-      </c>
-      <c r="S7">
-        <v>0.1441776379288625</v>
-      </c>
-      <c r="T7">
-        <v>0.1441776379288625</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.002008666666667</v>
+      </c>
+      <c r="N8">
+        <v>12.006026</v>
+      </c>
+      <c r="O8">
+        <v>0.4834231243738785</v>
+      </c>
+      <c r="P8">
+        <v>0.4834231243738787</v>
+      </c>
+      <c r="Q8">
+        <v>1.388715683373778</v>
+      </c>
+      <c r="R8">
+        <v>12.498441150364</v>
+      </c>
+      <c r="S8">
+        <v>0.1000883124346813</v>
+      </c>
+      <c r="T8">
+        <v>0.1000883124346814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3470046666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.041014</v>
+      </c>
+      <c r="I9">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="J9">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.265473333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.79642</v>
+      </c>
+      <c r="O9">
+        <v>0.5152483708764571</v>
+      </c>
+      <c r="P9">
+        <v>0.5152483708764573</v>
+      </c>
+      <c r="Q9">
+        <v>1.480139152208889</v>
+      </c>
+      <c r="R9">
+        <v>13.32125236988</v>
+      </c>
+      <c r="S9">
+        <v>0.1066774370641381</v>
+      </c>
+      <c r="T9">
+        <v>0.1066774370641381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3470046666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.041014</v>
+      </c>
+      <c r="I10">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="J10">
+        <v>0.2070408041905609</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.010998</v>
+      </c>
+      <c r="N10">
+        <v>0.032994</v>
+      </c>
+      <c r="O10">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P10">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q10">
+        <v>0.003816357324</v>
+      </c>
+      <c r="R10">
+        <v>0.03434721591600001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002750546917414536</v>
+      </c>
+      <c r="T10">
+        <v>0.0002750546917414536</v>
       </c>
     </row>
   </sheetData>
